--- a/400_tests_run.xlsx
+++ b/400_tests_run.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +595,11 @@
           <t>VREF ICE</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OEI Gradient</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -714,6 +713,9 @@
       <c r="AE2" t="n">
         <v>130</v>
       </c>
+      <c r="AF2" t="n">
+        <v>8.539999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -752,46 +754,48 @@
         <v>295</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>23100</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15</v>
       </c>
-      <c r="M3" t="n">
-        <v>995</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>22300</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>35</v>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>RDCP</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S3" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="U3" t="n">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -799,31 +803,34 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>90.06999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="X3" t="n">
-        <v>99.77</v>
+        <v>100</v>
       </c>
       <c r="Y3" t="n">
-        <v>663</v>
+        <v>731</v>
       </c>
       <c r="Z3" t="n">
-        <v>705</v>
+        <v>821</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="AB3" t="n">
-        <v>1269</v>
+        <v>1324</v>
       </c>
       <c r="AC3" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AD3" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AE3" t="n">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7.32</v>
       </c>
     </row>
     <row r="4">
@@ -860,43 +867,41 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J4" t="n">
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>23100</v>
+        <v>25800</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1020</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -904,11 +909,11 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>411</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
+        <v>-39</v>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -918,25 +923,28 @@
         <v>100</v>
       </c>
       <c r="Y4" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z4" t="n">
-        <v>821</v>
+        <v>776</v>
       </c>
       <c r="AA4" t="n">
-        <v>1172</v>
+        <v>1274</v>
       </c>
       <c r="AB4" t="n">
-        <v>1324</v>
+        <v>1360</v>
       </c>
       <c r="AC4" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AD4" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE4" t="n">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row r="5">
@@ -973,27 +981,27 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M5" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>24100</v>
+        <v>26500</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1011,43 +1019,46 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>261</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
+        <v>-189</v>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="X5" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>698</v>
+        <v>744</v>
       </c>
       <c r="Z5" t="n">
-        <v>852</v>
+        <v>925</v>
       </c>
       <c r="AA5" t="n">
-        <v>1166</v>
+        <v>1321</v>
       </c>
       <c r="AB5" t="n">
-        <v>1399</v>
+        <v>1585</v>
       </c>
       <c r="AC5" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AD5" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AE5" t="n">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.08</v>
       </c>
     </row>
     <row r="6">
@@ -1084,55 +1095,53 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>-16</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M6" t="n">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>25100</v>
+        <v>27200</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1020</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>111</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
+        <v>-339</v>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1142,25 +1151,28 @@
         <v>100</v>
       </c>
       <c r="Y6" t="n">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="Z6" t="n">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="AA6" t="n">
-        <v>1135</v>
+        <v>1616</v>
       </c>
       <c r="AB6" t="n">
-        <v>1419</v>
+        <v>1939</v>
       </c>
       <c r="AC6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="n">
         <v>120</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.98</v>
       </c>
     </row>
     <row r="7">
@@ -1197,81 +1209,86 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1030</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>27900</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>13</v>
-      </c>
-      <c r="L7" t="n">
-        <v>17</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1015</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>25800</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>35</v>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>RDCP</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="U7" t="n">
-        <v>-39</v>
+        <v>-489</v>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>28009(s)^</t>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>90.3</v>
+        <v>83.75</v>
       </c>
       <c r="X7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>730</v>
+        <v>833</v>
       </c>
       <c r="Z7" t="n">
-        <v>776</v>
+        <v>1033</v>
       </c>
       <c r="AA7" t="n">
-        <v>1274</v>
+        <v>1475</v>
       </c>
       <c r="AB7" t="n">
-        <v>1360</v>
+        <v>1537</v>
       </c>
       <c r="AC7" t="n">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AD7" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="n">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="8">
@@ -1308,27 +1325,27 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>-13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>26500</v>
+        <v>28009</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1338,51 +1355,56 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>1020</v>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>RDCP</t>
+        </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>-189</v>
+        <v>-639</v>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>28009(s)^</t>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="X8" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="n">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="Z8" t="n">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="AA8" t="n">
-        <v>1321</v>
+        <v>1289</v>
       </c>
       <c r="AB8" t="n">
-        <v>1585</v>
+        <v>1547</v>
       </c>
       <c r="AC8" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AD8" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AE8" t="n">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.03</v>
       </c>
     </row>
     <row r="9">
@@ -1391,27 +1413,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F9" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1419,33 +1439,33 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M9" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>27200</v>
+        <v>21500</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1461,39 +1481,42 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>-339</v>
-      </c>
-      <c r="V9" s="2" t="inlineStr">
-        <is>
-          <t>28009(s)^</t>
+        <v>1376</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>28009(s)</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>90.3</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>100</v>
+        <v>99.63</v>
       </c>
       <c r="Y9" t="n">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="Z9" t="n">
-        <v>1172</v>
+        <v>659</v>
       </c>
       <c r="AA9" t="n">
-        <v>1925</v>
+        <v>941</v>
       </c>
       <c r="AB9" t="n">
-        <v>1938</v>
+        <v>1176</v>
       </c>
       <c r="AC9" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="n">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="10">
@@ -1502,27 +1525,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F10" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1530,43 +1551,41 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>16</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1020</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>23100</v>
+      </c>
+      <c r="P10" t="n">
         <v>10</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>43</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1030</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>27900</v>
-      </c>
-      <c r="P10" t="n">
-        <v>12</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>1020</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1574,39 +1593,42 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>-489</v>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>28009(s)^</t>
+        <v>1676</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>28009(s)</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>83.75</v>
+        <v>90.3</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y10" t="n">
-        <v>833</v>
+        <v>757</v>
       </c>
       <c r="Z10" t="n">
-        <v>1033</v>
+        <v>888</v>
       </c>
       <c r="AA10" t="n">
-        <v>1475</v>
+        <v>1268</v>
       </c>
       <c r="AB10" t="n">
-        <v>1537</v>
+        <v>1342</v>
       </c>
       <c r="AC10" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AD10" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AE10" t="n">
-        <v>146</v>
+        <v>135</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.91</v>
       </c>
     </row>
     <row r="11">
@@ -1615,27 +1637,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F11" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1643,19 +1663,19 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="M11" t="n">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1663,13 +1683,13 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>28009</v>
+        <v>24100</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1687,11 +1707,11 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>-639</v>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>28009(s)^</t>
+        <v>1826</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>28009(s)</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -1701,25 +1721,28 @@
         <v>100</v>
       </c>
       <c r="Y11" t="n">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="Z11" t="n">
-        <v>942</v>
+        <v>973</v>
       </c>
       <c r="AA11" t="n">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="AB11" t="n">
-        <v>1547</v>
+        <v>1599</v>
       </c>
       <c r="AC11" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AD11" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE11" t="n">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.93</v>
       </c>
     </row>
     <row r="12">
@@ -1754,19 +1777,19 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M12" t="n">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1774,13 +1797,13 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>21500</v>
+        <v>25100</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1796,7 +1819,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1376</v>
+        <v>1976</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1804,31 +1827,34 @@
         </is>
       </c>
       <c r="W12" t="n">
-        <v>89.81999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="X12" t="n">
-        <v>99.63</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="n">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="Z12" t="n">
-        <v>659</v>
+        <v>861</v>
       </c>
       <c r="AA12" t="n">
-        <v>941</v>
+        <v>1230</v>
       </c>
       <c r="AB12" t="n">
-        <v>1176</v>
+        <v>1229</v>
       </c>
       <c r="AC12" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AD12" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AE12" t="n">
         <v>130</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5.78</v>
       </c>
     </row>
     <row r="13">
@@ -1863,43 +1889,45 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>340</v>
-      </c>
-      <c r="J13" t="n">
-        <v>20</v>
-      </c>
-      <c r="K13" t="n">
-        <v>20</v>
+        <v>110</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40 XW is 35*</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-21*</t>
+        </is>
       </c>
       <c r="L13" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M13" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>22300</v>
+        <v>26900</v>
       </c>
       <c r="P13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>35</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>1020</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1907,39 +1935,20 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1526</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>27645(c)</t>
-        </is>
-      </c>
-      <c r="W13" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>687</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>756</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1242</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1269</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>108</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>123</v>
+        <v>2276</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="14">
@@ -1974,33 +1983,33 @@
         </is>
       </c>
       <c r="I14" t="n">
+        <v>120</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>990</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>28009</v>
+      </c>
+      <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>23100</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10</v>
-      </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -2012,11 +2021,11 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1676</v>
+        <v>2576</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2030,25 +2039,28 @@
         <v>100</v>
       </c>
       <c r="Y14" t="n">
-        <v>757</v>
+        <v>801</v>
       </c>
       <c r="Z14" t="n">
-        <v>888</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>1268</v>
+        <v>1191</v>
       </c>
       <c r="AB14" t="n">
-        <v>1342</v>
+        <v>1429</v>
       </c>
       <c r="AC14" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AD14" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AE14" t="n">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="15">
@@ -2057,45 +2069,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F15" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="M15" t="n">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -2103,7 +2115,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>24100</v>
+        <v>21500</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2127,11 +2139,11 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1826</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
+        <v>4096</v>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>22303(f)*^</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2141,25 +2153,28 @@
         <v>100</v>
       </c>
       <c r="Y15" t="n">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="Z15" t="n">
-        <v>973</v>
+        <v>1032</v>
       </c>
       <c r="AA15" t="n">
-        <v>1279</v>
+        <v>1357</v>
       </c>
       <c r="AB15" t="n">
-        <v>1599</v>
+        <v>1696</v>
       </c>
       <c r="AC15" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AD15" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AE15" t="n">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.84</v>
       </c>
     </row>
     <row r="16">
@@ -2168,42 +2183,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F16" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
         <v>1010</v>
@@ -2214,10 +2229,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>25100</v>
+        <v>24100</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>35</v>
@@ -2236,7 +2251,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1976</v>
+        <v>3646</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2244,31 +2259,34 @@
         </is>
       </c>
       <c r="W16" t="n">
-        <v>90.3</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>100</v>
+        <v>99.77</v>
       </c>
       <c r="Y16" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="Z16" t="n">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="AA16" t="n">
-        <v>1230</v>
+        <v>1282</v>
       </c>
       <c r="AB16" t="n">
-        <v>1229</v>
+        <v>1539</v>
       </c>
       <c r="AC16" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="AD16" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5.94</v>
       </c>
     </row>
     <row r="17">
@@ -2277,45 +2295,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D17" t="n">
+        <v>23</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3556</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1738</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ungrooved</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>118</v>
+      </c>
+      <c r="J17" t="n">
         <v>35</v>
       </c>
-      <c r="E17" t="n">
-        <v>1886</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2683</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
       <c r="K17" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M17" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2323,31 +2341,29 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>26000</v>
+        <v>25100</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1020</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>2126</v>
+        <v>3496</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2355,31 +2371,34 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>90.3</v>
+        <v>87.55</v>
       </c>
       <c r="X17" t="n">
-        <v>100</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="Z17" t="n">
-        <v>1203</v>
+        <v>951</v>
       </c>
       <c r="AA17" t="n">
-        <v>1582</v>
+        <v>1562</v>
       </c>
       <c r="AB17" t="n">
-        <v>1977</v>
+        <v>1874</v>
       </c>
       <c r="AC17" t="n">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="AD17" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AE17" t="n">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>5.05</v>
       </c>
     </row>
     <row r="18">
@@ -2388,63 +2407,59 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F18" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>110</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>40 XW is 35*</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>-21*</t>
-        </is>
+        <v>208</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O18" t="n">
         <v>26900</v>
       </c>
       <c r="P18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2460,18 +2475,43 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>2276</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+        <v>3196</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>28009(s)</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>873</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>964</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1583</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1745</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>131</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>123</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>143</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2479,56 +2519,56 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F19" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="J19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L19" t="n">
         <v>-9</v>
       </c>
-      <c r="L19" t="n">
-        <v>20</v>
-      </c>
       <c r="M19" t="n">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>27800</v>
+        <v>27700</v>
       </c>
       <c r="P19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>15</v>
@@ -2545,15 +2585,15 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2426</v>
+        <v>3046</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>28009(s)</t>
+          <t>25973(f)</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -2563,25 +2603,28 @@
         <v>100</v>
       </c>
       <c r="Y19" t="n">
-        <v>863</v>
+        <v>892</v>
       </c>
       <c r="Z19" t="n">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="AA19" t="n">
-        <v>2101</v>
+        <v>1455</v>
       </c>
       <c r="AB19" t="n">
-        <v>2127</v>
+        <v>1819</v>
       </c>
       <c r="AC19" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AD19" t="n">
         <v>126</v>
       </c>
       <c r="AE19" t="n">
         <v>146</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="20">
@@ -2590,56 +2633,56 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E20" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F20" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M20" t="n">
-        <v>990</v>
+        <v>1035</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O20" t="n">
         <v>28009</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q20" t="n">
         <v>35</v>
@@ -2654,15 +2697,15 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2576</v>
+        <v>2896</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>28009(s)</t>
+          <t>25540(f)</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -2672,25 +2715,28 @@
         <v>100</v>
       </c>
       <c r="Y20" t="n">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>1127</v>
       </c>
       <c r="AA20" t="n">
-        <v>1191</v>
+        <v>1851</v>
       </c>
       <c r="AB20" t="n">
-        <v>1429</v>
+        <v>1869</v>
       </c>
       <c r="AC20" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AD20" t="n">
         <v>122</v>
       </c>
       <c r="AE20" t="n">
         <v>137</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="21">
@@ -2699,29 +2745,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F21" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2734,46 +2780,44 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="M21" t="n">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>21500</v>
+        <v>28009</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>1020</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>4096</v>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>22303(f)^</t>
+        <v>403</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>28009(s)</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -2783,25 +2827,28 @@
         <v>100</v>
       </c>
       <c r="Y21" t="n">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="Z21" t="n">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="AA21" t="n">
-        <v>1357</v>
+        <v>1217</v>
       </c>
       <c r="AB21" t="n">
-        <v>1696</v>
+        <v>1347</v>
       </c>
       <c r="AC21" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD21" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="22">
@@ -2810,56 +2857,56 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>22300</v>
+        <v>26809</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>35</v>
@@ -2878,11 +2925,11 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>3946</v>
+        <v>163</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>28009(s)</t>
+          <t>26914(f)</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -2892,25 +2939,28 @@
         <v>100</v>
       </c>
       <c r="Y22" t="n">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="Z22" t="n">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="AA22" t="n">
-        <v>1127</v>
+        <v>1154</v>
       </c>
       <c r="AB22" t="n">
-        <v>1235</v>
+        <v>1385</v>
       </c>
       <c r="AC22" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AD22" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AE22" t="n">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.47</v>
       </c>
     </row>
     <row r="23">
@@ -2919,33 +2969,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="n">
         <v>10</v>
@@ -2954,46 +3004,44 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>23100</v>
+        <v>26209</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>1020</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>3796</v>
+        <v>73</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>24087(f)</t>
+          <t>28009(s)</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -3003,25 +3051,28 @@
         <v>100</v>
       </c>
       <c r="Y23" t="n">
-        <v>783</v>
+        <v>739</v>
       </c>
       <c r="Z23" t="n">
-        <v>1028</v>
+        <v>852</v>
       </c>
       <c r="AA23" t="n">
-        <v>1496</v>
+        <v>1217</v>
       </c>
       <c r="AB23" t="n">
-        <v>1689</v>
+        <v>1220</v>
       </c>
       <c r="AC23" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AD23" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AE23" t="n">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>5.52</v>
       </c>
     </row>
     <row r="24">
@@ -3030,45 +3081,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M24" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -3076,10 +3127,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>24100</v>
+        <v>25609</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="n">
         <v>35</v>
@@ -3098,39 +3149,42 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>3646</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
+        <v>-17</v>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>90.06999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>99.77</v>
+        <v>97.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="Z24" t="n">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="AA24" t="n">
-        <v>1282</v>
+        <v>1244</v>
       </c>
       <c r="AB24" t="n">
-        <v>1539</v>
+        <v>1207</v>
       </c>
       <c r="AC24" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="AD24" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AE24" t="n">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>4.86</v>
       </c>
     </row>
     <row r="25">
@@ -3139,63 +3193,63 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D25" t="n">
+        <v>26</v>
+      </c>
+      <c r="E25" t="n">
+        <v>43</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Grooved</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>240</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25</v>
+      </c>
+      <c r="K25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>118</v>
-      </c>
-      <c r="J25" t="n">
-        <v>35</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-11</v>
-      </c>
       <c r="L25" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>25100</v>
+        <v>24809</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -3203,43 +3257,46 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>3496</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
+        <v>-107</v>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>28009(s)*^</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>87.55</v>
+        <v>90.3</v>
       </c>
       <c r="X25" t="n">
-        <v>97.84999999999999</v>
+        <v>100</v>
       </c>
       <c r="Y25" t="n">
         <v>768</v>
       </c>
       <c r="Z25" t="n">
-        <v>951</v>
+        <v>860</v>
       </c>
       <c r="AA25" t="n">
-        <v>1562</v>
+        <v>982</v>
       </c>
       <c r="AB25" t="n">
-        <v>1874</v>
+        <v>1228</v>
       </c>
       <c r="AC25" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="AD25" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6.84</v>
       </c>
     </row>
     <row r="26">
@@ -3248,45 +3305,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>22</v>
+        <v>-6</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M26" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -3294,7 +3351,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>26100</v>
+        <v>23209</v>
       </c>
       <c r="P26" t="n">
         <v>7</v>
@@ -3304,1254 +3361,54 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>1020</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>3346</v>
+        <v>463</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>27156(c)</t>
+          <t>27296(f)</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="X26" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>789</v>
+        <v>682</v>
       </c>
       <c r="Z26" t="n">
-        <v>930</v>
+        <v>866</v>
       </c>
       <c r="AA26" t="n">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="AB26" t="n">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="AC26" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AD26" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AE26" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>23</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>208</v>
-      </c>
-      <c r="J27" t="n">
-        <v>15</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14</v>
-      </c>
-      <c r="L27" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1025</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>26900</v>
-      </c>
-      <c r="P27" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>15</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U27" t="n">
-        <v>3196</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
-        </is>
-      </c>
-      <c r="W27" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X27" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>873</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>964</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1583</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1745</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>131</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>123</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>23</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>128</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-9</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1030</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>27700</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>15</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>RDCP</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="U28" t="n">
-        <v>3046</v>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>25973(f)</t>
-        </is>
-      </c>
-      <c r="W28" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X28" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>892</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1273</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1455</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1819</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>146</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>23</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>118</v>
-      </c>
-      <c r="J29" t="n">
-        <v>20</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>13</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1035</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>28009</v>
-      </c>
-      <c r="P29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>35</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U29" t="n">
-        <v>2896</v>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>25540(f)</t>
-        </is>
-      </c>
-      <c r="W29" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>829</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1127</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1851</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1869</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>133</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>122</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>26</v>
-      </c>
-      <c r="E30" t="n">
-        <v>43</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1001</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>28009</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>35</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U30" t="n">
-        <v>403</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
-        </is>
-      </c>
-      <c r="W30" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X30" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>773</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>852</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1217</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1347</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>127</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>122</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>26</v>
-      </c>
-      <c r="E31" t="n">
-        <v>43</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>270</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" t="n">
-        <v>15</v>
-      </c>
-      <c r="L31" t="n">
-        <v>17</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>27409</v>
-      </c>
-      <c r="P31" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>35</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U31" t="n">
-        <v>283</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
-        </is>
-      </c>
-      <c r="W31" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X31" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>762</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>799</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1141</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1222</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>127</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>26</v>
-      </c>
-      <c r="E32" t="n">
-        <v>43</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>260</v>
-      </c>
-      <c r="J32" t="n">
-        <v>15</v>
-      </c>
-      <c r="K32" t="n">
-        <v>15</v>
-      </c>
-      <c r="L32" t="n">
-        <v>10</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1009</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>26809</v>
-      </c>
-      <c r="P32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>35</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="U32" t="n">
-        <v>163</v>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>26914(f)</t>
-        </is>
-      </c>
-      <c r="W32" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X32" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>750</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>843</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1335</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1385</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>134</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>119</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>26</v>
-      </c>
-      <c r="E33" t="n">
-        <v>43</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>250</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10</v>
-      </c>
-      <c r="L33" t="n">
-        <v>21</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1012</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>26209</v>
-      </c>
-      <c r="P33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>35</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U33" t="n">
-        <v>73</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>28009(s)</t>
-        </is>
-      </c>
-      <c r="W33" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X33" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>739</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>852</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1217</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>128</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>117</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>26</v>
-      </c>
-      <c r="E34" t="n">
-        <v>43</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>240</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>42</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1015</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>25609</v>
-      </c>
-      <c r="P34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>35</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>-17</v>
-      </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>28009(s)^</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="X34" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>728</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>871</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1244</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1207</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>129</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>116</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>26</v>
-      </c>
-      <c r="E35" t="n">
-        <v>43</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>240</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>23</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1018</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>24809</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>15</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
-        <v>-107</v>
-      </c>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>28009(s)^</t>
-        </is>
-      </c>
-      <c r="W35" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X35" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>768</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>860</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>982</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1228</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>139</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>119</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>26</v>
-      </c>
-      <c r="E36" t="n">
-        <v>43</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>230</v>
-      </c>
-      <c r="J36" t="n">
-        <v>15</v>
-      </c>
-      <c r="K36" t="n">
-        <v>13</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>24009</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>15</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>-167</v>
-      </c>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t>27040(f)^</t>
-        </is>
-      </c>
-      <c r="W36" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="X36" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>751</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>890</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1017</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1271</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>138</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>118</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>26</v>
-      </c>
-      <c r="E37" t="n">
-        <v>43</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>30</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>33</v>
-      </c>
-      <c r="M37" t="n">
-        <v>999</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>23209</v>
-      </c>
-      <c r="P37" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>35</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
-        <v>1020</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>463</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>27296(f)</t>
-        </is>
-      </c>
-      <c r="W37" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="X37" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>682</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>866</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1237</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1312</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE37" t="n">
         <v>125</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6.86</v>
       </c>
     </row>
   </sheetData>
